--- a/test_results/04_safety_test.xlsx
+++ b/test_results/04_safety_test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Documents\03_my_projects\python_exercise\students_grades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Documents\03_my_projects\python_exercise\test_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4332C5D8-7AB0-451A-AF88-CCF7F20A5E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{194C3751-710D-4877-91CF-33A2D4663AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F452763C-4E1F-49C0-9B4B-763D1EA4D213}"/>
   </bookViews>
@@ -20,15 +20,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Dorin</t>
+    <t>SWC_VDSO</t>
   </si>
   <si>
-    <t>Lea</t>
+    <t>Module_VDSO_SIN</t>
   </si>
   <si>
-    <t>Marcel</t>
+    <t>Module_VDSO_SOUT</t>
+  </si>
+  <si>
+    <t>Module_VDSO_CLC</t>
+  </si>
+  <si>
+    <t>Module_VDSO_PRE</t>
   </si>
 </sst>
 </file>
@@ -889,10 +895,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10157022-4770-4105-AE14-FD760823CE1F}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -900,43 +906,119 @@
     <col min="1" max="2" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>11</v>
+        <v>150</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>10</v>
+      </c>
+      <c r="E1">
+        <v>45</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>354</v>
       </c>
       <c r="C2">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>172</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>25</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>40</v>
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>92</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>92</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>80</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>64</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
